--- a/ComputerScience/CS Timeline Estimate degree.xlsx
+++ b/ComputerScience/CS Timeline Estimate degree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\OSSU\ComputerScience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776463F1-C3DC-4FBC-95A7-583ADAC8B865}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7C1888-C615-4C07-A1A6-30FF09F897A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
     <numFmt numFmtId="165" formatCode="yyyy&quot; &quot;mmm&quot; &quot;dd"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -734,6 +734,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -780,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -875,10 +882,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,6 +902,16 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2213,7 +2226,7 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2230,10 +2243,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2426,11 +2439,11 @@
   </sheetPr>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2527,9 +2540,7 @@
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
@@ -2568,7 +2579,9 @@
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="24"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="48" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
@@ -4580,7 +4593,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="39" t="s">
         <v>148</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -4662,7 +4675,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="40" t="s">
         <v>150</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -4744,7 +4757,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="41" t="s">
         <v>152</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -4785,7 +4798,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="42" t="s">
         <v>153</v>
       </c>
       <c r="B58" s="27" t="s">
@@ -4826,7 +4839,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="43" t="s">
         <v>156</v>
       </c>
       <c r="B59" s="27" t="s">
@@ -4908,7 +4921,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="44" t="s">
         <v>158</v>
       </c>
       <c r="B61" s="27" t="s">
@@ -4973,7 +4986,7 @@
         <f>MAX(J53:J61)</f>
         <v>46215.299999999996</v>
       </c>
-      <c r="J62" s="40">
+      <c r="J62" s="38">
         <f>IF(ISBLANK(K62),I62+(H62/(Timeline!$B$3/7)),K62)</f>
         <v>46285.299999999996</v>
       </c>
@@ -4983,77 +4996,77 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="M6" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="A7" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="A8" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="A9" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="M9" r:id="rId11" location="how-can-i-review-the-math-prerequisites" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="A10" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="A11" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="A16" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="A17" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="A19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="M19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="A21" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="A22" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="A23" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="A24" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="A25" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="A26" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="A27" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="A28" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="A30" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="A31" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="A32" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="M32" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="A33" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="A34" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="A35" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="A36" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="M36" r:id="rId35" location="why-require-experience-with-a-sizable-project-before-the-Software-Engineering-courses" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="A37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="A38" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="A39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="A40" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="A41" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="A42" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="A43" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="A45" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="A12" r:id="rId44" xr:uid="{DD0BC2D2-7180-47F7-93DF-81E69A37C846}"/>
-    <hyperlink ref="A13" r:id="rId45" xr:uid="{817B8A7D-F715-4AFC-A770-AAC4BBDAA199}"/>
-    <hyperlink ref="A15" r:id="rId46" xr:uid="{39B90D39-80C6-4245-A4EB-FEAB45B5D1A1}"/>
-    <hyperlink ref="M12" r:id="rId47" location="how-can-i-review-the-math-prerequisites" xr:uid="{D466EE6F-7688-4DB8-9048-B69A6F6C771F}"/>
-    <hyperlink ref="M14" r:id="rId48" xr:uid="{BBD4307E-99E6-4244-A086-4A23E14D6BED}"/>
-    <hyperlink ref="M15" r:id="rId49" xr:uid="{81E7FEA3-A29F-4047-BCBA-54C8624AF18D}"/>
-    <hyperlink ref="A14" r:id="rId50" xr:uid="{2A83D67E-B811-4A30-84A2-59BD32A7D849}"/>
-    <hyperlink ref="A20" r:id="rId51" xr:uid="{51F16CF0-05BF-4824-9469-5CAAC689D855}"/>
-    <hyperlink ref="M20" r:id="rId52" display="familiarity with C" xr:uid="{51B19A5D-B972-4E3B-A14C-DB9A7732F3AC}"/>
-    <hyperlink ref="A29" r:id="rId53" xr:uid="{847E0070-7F1E-4788-92F7-0DC79FDBDB73}"/>
-    <hyperlink ref="A44" r:id="rId54" xr:uid="{3B61E5E9-BB39-4B95-B8A2-FFAD2611B61E}"/>
-    <hyperlink ref="A46" r:id="rId55" xr:uid="{3BA1C9AC-8958-4C44-A0C9-D489C37CFEE1}"/>
-    <hyperlink ref="A47" r:id="rId56" xr:uid="{B88D6361-493C-46F9-9347-BF9B486B7FAA}"/>
-    <hyperlink ref="A48" r:id="rId57" xr:uid="{7DFDB33B-EC6A-472C-BED2-5E621AC95604}"/>
-    <hyperlink ref="A51" r:id="rId58" xr:uid="{D865E8A2-0592-4083-AE56-294BD98C0CD8}"/>
-    <hyperlink ref="A49" r:id="rId59" xr:uid="{E33A914A-1984-46CD-BA63-5D237456CFF5}"/>
-    <hyperlink ref="A50" r:id="rId60" xr:uid="{673C6EB4-987A-4123-9D11-35787DDC206C}"/>
-    <hyperlink ref="A52" r:id="rId61" xr:uid="{10628560-AF64-4E7E-B5C7-DA7BFB72BBB2}"/>
-    <hyperlink ref="A53" r:id="rId62" display="Modern Robotics" xr:uid="{3F7CB013-E413-4E5C-BC8E-E086507ABB68}"/>
-    <hyperlink ref="A54" r:id="rId63" xr:uid="{2246002B-9DB3-449D-AAD4-BC712471E2C4}"/>
-    <hyperlink ref="A55" r:id="rId64" xr:uid="{ABD86F73-547B-4121-80ED-EFE731BA110B}"/>
-    <hyperlink ref="A56" r:id="rId65" xr:uid="{89F8AAB5-BC84-412B-AA81-03DA3E57F6F8}"/>
-    <hyperlink ref="A57" r:id="rId66" xr:uid="{549C6802-681D-4ACC-82D7-F4DBFFEB37A4}"/>
-    <hyperlink ref="A58" r:id="rId67" xr:uid="{DCC9FA97-30F0-46A4-A1C5-84AB347A342D}"/>
-    <hyperlink ref="A59" r:id="rId68" xr:uid="{B159415B-38E2-4586-ABEF-478290B2788D}"/>
-    <hyperlink ref="A60" r:id="rId69" xr:uid="{2149BBE6-5269-4F18-ABF0-18D863AA9D70}"/>
-    <hyperlink ref="A61" r:id="rId70" xr:uid="{21572BC1-21EA-427A-99D2-20A2CD9D080E}"/>
-    <hyperlink ref="M46" r:id="rId71" xr:uid="{C57A5971-528B-4410-BD45-E6828D301CCF}"/>
-    <hyperlink ref="M53" r:id="rId72" xr:uid="{A7FF327F-573B-43D9-98BA-75415B6C045D}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="M6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="M9" r:id="rId10" location="how-can-i-review-the-math-prerequisites" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="A10" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A11" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A16" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A17" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A18" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="A19" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="M19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="A21" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="A22" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="A30" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="A31" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="A32" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="M32" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="M36" r:id="rId34" location="why-require-experience-with-a-sizable-project-before-the-Software-Engineering-courses" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="A37" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="A38" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="A39" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="A40" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="A41" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="A42" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="A43" r:id="rId41" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="A12" r:id="rId43" xr:uid="{DD0BC2D2-7180-47F7-93DF-81E69A37C846}"/>
+    <hyperlink ref="A13" r:id="rId44" xr:uid="{817B8A7D-F715-4AFC-A770-AAC4BBDAA199}"/>
+    <hyperlink ref="A15" r:id="rId45" xr:uid="{39B90D39-80C6-4245-A4EB-FEAB45B5D1A1}"/>
+    <hyperlink ref="M12" r:id="rId46" location="how-can-i-review-the-math-prerequisites" xr:uid="{D466EE6F-7688-4DB8-9048-B69A6F6C771F}"/>
+    <hyperlink ref="M14" r:id="rId47" xr:uid="{BBD4307E-99E6-4244-A086-4A23E14D6BED}"/>
+    <hyperlink ref="M15" r:id="rId48" xr:uid="{81E7FEA3-A29F-4047-BCBA-54C8624AF18D}"/>
+    <hyperlink ref="A14" r:id="rId49" xr:uid="{2A83D67E-B811-4A30-84A2-59BD32A7D849}"/>
+    <hyperlink ref="A20" r:id="rId50" xr:uid="{51F16CF0-05BF-4824-9469-5CAAC689D855}"/>
+    <hyperlink ref="M20" r:id="rId51" display="familiarity with C" xr:uid="{51B19A5D-B972-4E3B-A14C-DB9A7732F3AC}"/>
+    <hyperlink ref="A29" r:id="rId52" xr:uid="{847E0070-7F1E-4788-92F7-0DC79FDBDB73}"/>
+    <hyperlink ref="A44" r:id="rId53" xr:uid="{3B61E5E9-BB39-4B95-B8A2-FFAD2611B61E}"/>
+    <hyperlink ref="A46" r:id="rId54" xr:uid="{3BA1C9AC-8958-4C44-A0C9-D489C37CFEE1}"/>
+    <hyperlink ref="A47" r:id="rId55" xr:uid="{B88D6361-493C-46F9-9347-BF9B486B7FAA}"/>
+    <hyperlink ref="A48" r:id="rId56" xr:uid="{7DFDB33B-EC6A-472C-BED2-5E621AC95604}"/>
+    <hyperlink ref="A51" r:id="rId57" xr:uid="{D865E8A2-0592-4083-AE56-294BD98C0CD8}"/>
+    <hyperlink ref="A49" r:id="rId58" xr:uid="{E33A914A-1984-46CD-BA63-5D237456CFF5}"/>
+    <hyperlink ref="A50" r:id="rId59" xr:uid="{673C6EB4-987A-4123-9D11-35787DDC206C}"/>
+    <hyperlink ref="A52" r:id="rId60" xr:uid="{10628560-AF64-4E7E-B5C7-DA7BFB72BBB2}"/>
+    <hyperlink ref="A53" r:id="rId61" display="Modern Robotics" xr:uid="{3F7CB013-E413-4E5C-BC8E-E086507ABB68}"/>
+    <hyperlink ref="A54" r:id="rId62" xr:uid="{2246002B-9DB3-449D-AAD4-BC712471E2C4}"/>
+    <hyperlink ref="A55" r:id="rId63" xr:uid="{ABD86F73-547B-4121-80ED-EFE731BA110B}"/>
+    <hyperlink ref="A56" r:id="rId64" xr:uid="{89F8AAB5-BC84-412B-AA81-03DA3E57F6F8}"/>
+    <hyperlink ref="A57" r:id="rId65" xr:uid="{549C6802-681D-4ACC-82D7-F4DBFFEB37A4}"/>
+    <hyperlink ref="A58" r:id="rId66" xr:uid="{DCC9FA97-30F0-46A4-A1C5-84AB347A342D}"/>
+    <hyperlink ref="A59" r:id="rId67" xr:uid="{B159415B-38E2-4586-ABEF-478290B2788D}"/>
+    <hyperlink ref="A60" r:id="rId68" xr:uid="{2149BBE6-5269-4F18-ABF0-18D863AA9D70}"/>
+    <hyperlink ref="A61" r:id="rId69" xr:uid="{21572BC1-21EA-427A-99D2-20A2CD9D080E}"/>
+    <hyperlink ref="M46" r:id="rId70" xr:uid="{C57A5971-528B-4410-BD45-E6828D301CCF}"/>
+    <hyperlink ref="M53" r:id="rId71" xr:uid="{A7FF327F-573B-43D9-98BA-75415B6C045D}"/>
+    <hyperlink ref="M3" r:id="rId72" xr:uid="{4F758DF5-F415-4488-8758-ED2197331EE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>

--- a/ComputerScience/CS Timeline Estimate degree.xlsx
+++ b/ComputerScience/CS Timeline Estimate degree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\OSSU\ComputerScience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7C1888-C615-4C07-A1A6-30FF09F897A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277D4C9-901B-48C5-9D3E-C807AAF6C4D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="186">
   <si>
     <t>Start Date</t>
   </si>
@@ -576,6 +576,9 @@
   </si>
   <si>
     <t>Advanced Applications 8</t>
+  </si>
+  <si>
+    <t>Lesson 2 Vid 3</t>
   </si>
 </sst>
 </file>
@@ -906,13 +909,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2243,10 +2246,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2440,10 +2443,10 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2539,7 +2542,9 @@
         <v>44291</v>
       </c>
       <c r="K2" s="18"/>
-      <c r="L2" s="24"/>
+      <c r="L2" s="24" t="s">
+        <v>185</v>
+      </c>
       <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2579,7 +2584,7 @@
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="24"/>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="46" t="s">
         <v>21</v>
       </c>
     </row>

--- a/ComputerScience/CS Timeline Estimate degree.xlsx
+++ b/ComputerScience/CS Timeline Estimate degree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\OSSU\ComputerScience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277D4C9-901B-48C5-9D3E-C807AAF6C4D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF2FF17-1955-4FFD-A348-174001286C0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="187">
   <si>
     <t>Start Date</t>
   </si>
@@ -578,7 +578,10 @@
     <t>Advanced Applications 8</t>
   </si>
   <si>
-    <t>Lesson 2 Vid 3</t>
+    <t>Lesson 3 Vid 2</t>
+  </si>
+  <si>
+    <t>Download Py</t>
   </si>
 </sst>
 </file>
@@ -2443,7 +2446,7 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
@@ -2583,7 +2586,9 @@
         <v>44385.5</v>
       </c>
       <c r="K3" s="18"/>
-      <c r="L3" s="24"/>
+      <c r="L3" s="24" t="s">
+        <v>186</v>
+      </c>
       <c r="M3" s="46" t="s">
         <v>21</v>
       </c>

--- a/ComputerScience/CS Timeline Estimate degree.xlsx
+++ b/ComputerScience/CS Timeline Estimate degree.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\OSSU\ComputerScience\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\OSSU\ComputerScience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF2FF17-1955-4FFD-A348-174001286C0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A92118E4-A861-412D-A62A-F494336A9751}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,10 +578,10 @@
     <t>Advanced Applications 8</t>
   </si>
   <si>
-    <t>Lesson 3 Vid 2</t>
-  </si>
-  <si>
-    <t>Download Py</t>
+    <t>Lecture 2 Vid 3</t>
+  </si>
+  <si>
+    <t>Lesson 4</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
     <numFmt numFmtId="165" formatCode="yyyy&quot; &quot;mmm&quot; &quot;dd"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -747,6 +747,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -793,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -919,6 +925,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2446,10 +2453,10 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2545,8 +2552,8 @@
         <v>44291</v>
       </c>
       <c r="K2" s="18"/>
-      <c r="L2" s="24" t="s">
-        <v>185</v>
+      <c r="L2" s="49" t="s">
+        <v>186</v>
       </c>
       <c r="M2" s="45"/>
     </row>
@@ -2587,7 +2594,7 @@
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M3" s="46" t="s">
         <v>21</v>

--- a/ComputerScience/CS Timeline Estimate degree.xlsx
+++ b/ComputerScience/CS Timeline Estimate degree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\OSSU\ComputerScience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A92118E4-A861-412D-A62A-F494336A9751}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA7432C-9295-4550-A4FC-786E2C9ED7A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,10 +578,10 @@
     <t>Advanced Applications 8</t>
   </si>
   <si>
-    <t>Lecture 2 Vid 3</t>
-  </si>
-  <si>
     <t>Lesson 4</t>
+  </si>
+  <si>
+    <t>Lect 3(Unreleased)</t>
   </si>
 </sst>
 </file>
@@ -921,11 +921,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2256,10 +2256,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2456,7 +2456,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2552,8 +2552,8 @@
         <v>44291</v>
       </c>
       <c r="K2" s="18"/>
-      <c r="L2" s="49" t="s">
-        <v>186</v>
+      <c r="L2" s="47" t="s">
+        <v>185</v>
       </c>
       <c r="M2" s="45"/>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M3" s="46" t="s">
         <v>21</v>
@@ -2636,7 +2636,7 @@
         <v>44434.5</v>
       </c>
       <c r="K4" s="18"/>
-      <c r="L4" s="24"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="2" t="s">
         <v>29</v>
       </c>
